--- a/benchmarks/benchmark.xlsx
+++ b/benchmarks/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="go small" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>jsonparser</t>
   </si>
@@ -65,6 +65,48 @@
   </si>
   <si>
     <t>jsoniter bind</t>
+  </si>
+  <si>
+    <t>Benchmark                             Mode  Cnt       Score      Error  Units</t>
+  </si>
+  <si>
+    <t>Deserialization.dsljson              thrpt   20  340350.871 ± 1880.206  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.fastjson             thrpt   20  100305.329 ± 2230.610  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.gson                 thrpt   20   87310.112 ±  305.437  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.jackson              thrpt   20  173030.463 ± 2467.792  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.jackson_afterburner  thrpt   20  189544.014 ± 1075.660  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.jsoniter             thrpt   20  375927.095 ± 2872.745  ops/s</t>
+  </si>
+  <si>
+    <t>Benchmark                             Mode  Cnt      Score     Error  Units</t>
+  </si>
+  <si>
+    <t>Deserialization.dsljson              thrpt   20  57228.816 ± 689.248  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.fastjson             thrpt   20  17008.794 ±  73.115  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.gson                 thrpt   20  15465.866 ± 389.607  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.jackson              thrpt   20  28970.678 ± 412.495  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.jackson_afterburner  thrpt   20  31195.884 ± 259.891  ops/s</t>
+  </si>
+  <si>
+    <t>Deserialization.jsoniter             thrpt   20  58623.161 ± 360.884  ops/s</t>
   </si>
 </sst>
 </file>
@@ -181,7 +223,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -303,7 +344,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -595,7 +635,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -717,7 +756,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1009,7 +1047,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1131,7 +1168,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1411,7 +1447,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1533,7 +1568,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1983,19 +2017,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>850892.34900000005</c:v>
+                  <c:v>177084.68900000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392361.20699999999</c:v>
+                  <c:v>93788.846000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>544556.92000000004</c:v>
+                  <c:v>104953.993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1335352.551</c:v>
+                  <c:v>330153.57299999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4933967.1100000003</c:v>
+                  <c:v>402531.20600000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,19 +2431,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100824.573</c:v>
+                  <c:v>28726.365000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49527.521000000001</c:v>
+                  <c:v>16188.633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72793.357000000004</c:v>
+                  <c:v>17389.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164668.34899999999</c:v>
+                  <c:v>58355.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>531711.83100000001</c:v>
+                  <c:v>63245.508000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,19 +2845,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9683.5</c:v>
+                  <c:v>2888.3220000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4959.9709999999995</c:v>
+                  <c:v>1618.855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6944.3059999999996</c:v>
+                  <c:v>1560.1120000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16793.305</c:v>
+                  <c:v>5718.1769999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54352.743000000002</c:v>
+                  <c:v>6269.2529999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3055,7 +3089,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3177,7 +3210,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3457,7 +3489,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3579,7 +3610,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9397,7 +9427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -9439,10 +9469,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9455,7 +9485,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>850892.34900000005</v>
+        <v>177084.68900000001</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9463,7 +9493,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>392361.20699999999</v>
+        <v>93788.846000000005</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9471,7 +9501,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>544556.92000000004</v>
+        <v>104953.993</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9479,7 +9509,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1335352.551</v>
+        <v>330153.57299999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9487,7 +9517,42 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>4933967.1100000003</v>
+        <v>402531.20600000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9499,10 +9564,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9515,7 +9580,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="3">
-        <v>100824.573</v>
+        <v>28726.365000000002</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9523,7 +9588,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>49527.521000000001</v>
+        <v>16188.633</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9531,7 +9596,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>72793.357000000004</v>
+        <v>17389.34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9539,7 +9604,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>164668.34899999999</v>
+        <v>58355.07</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9547,7 +9612,42 @@
         <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>531711.83100000001</v>
+        <v>63245.508000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -9560,8 +9660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9574,7 +9674,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2">
-        <v>9683.5</v>
+        <v>2888.3220000000001</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9582,7 +9682,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>4959.9709999999995</v>
+        <v>1618.855</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9590,7 +9690,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>6944.3059999999996</v>
+        <v>1560.1120000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9598,7 +9698,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>16793.305</v>
+        <v>5718.1769999999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9606,7 +9706,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>54352.743000000002</v>
+        <v>6269.2529999999997</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/benchmark.xlsx
+++ b/benchmarks/benchmark.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taowen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taowen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="go small" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="java1" sheetId="5" r:id="rId5"/>
     <sheet name="java10" sheetId="6" r:id="rId6"/>
     <sheet name="java100" sheetId="7" r:id="rId7"/>
-    <sheet name="java1000" sheetId="8" r:id="rId8"/>
-    <sheet name="java10000" sheetId="9" r:id="rId9"/>
+    <sheet name="go medium v2" sheetId="10" r:id="rId8"/>
+    <sheet name="java1000" sheetId="8" r:id="rId9"/>
+    <sheet name="java10000" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>jsonparser</t>
   </si>
@@ -108,16 +109,32 @@
   <si>
     <t>Deserialization.jsoniter             thrpt   20  58623.161 ± 360.884  ops/s</t>
   </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsoniter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,6 +149,13 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,7 +278,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -331,7 +355,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -468,7 +492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781227696"/>
@@ -526,7 +550,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781232272"/>
@@ -578,7 +602,7 @@
       <a:pPr>
         <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -589,7 +613,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -630,7 +654,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ns/op (smaller is better)</a:t>
+              <a:t>ops/s (higher is better)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -666,7 +690,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -743,7 +767,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -756,6 +780,408 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>java10000!$A$1:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>javaxjson</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>jackson</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jsoniter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>java10000!$B$1:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113.544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.95699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274.03899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E84-4749-9DE2-5D9CDEE359C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="781232272"/>
+        <c:axId val="781227696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="781232272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="781227696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="781227696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="781232272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ns/op (smaller is better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -880,7 +1306,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781227696"/>
@@ -938,7 +1364,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781232272"/>
@@ -990,7 +1416,7 @@
       <a:pPr>
         <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1078,7 +1504,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1155,7 +1581,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1280,7 +1706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781227696"/>
@@ -1338,7 +1764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781232272"/>
@@ -1390,7 +1816,7 @@
       <a:pPr>
         <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1478,7 +1904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1555,7 +1981,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1680,7 +2106,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781227696"/>
@@ -1738,7 +2164,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781232272"/>
@@ -1790,7 +2216,7 @@
       <a:pPr>
         <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1847,7 +2273,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1879,7 +2304,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1956,7 +2381,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1969,7 +2394,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2094,7 +2518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781227696"/>
@@ -2152,7 +2576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781232272"/>
@@ -2204,7 +2628,7 @@
       <a:pPr>
         <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2261,7 +2685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2293,7 +2716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2370,7 +2793,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2383,7 +2806,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2508,7 +2930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781227696"/>
@@ -2566,7 +2988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781232272"/>
@@ -2618,7 +3040,7 @@
       <a:pPr>
         <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2707,7 +3129,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2784,7 +3206,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2922,7 +3344,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781227696"/>
@@ -2980,7 +3402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781232272"/>
@@ -3032,7 +3454,7 @@
       <a:pPr>
         <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3044,6 +3466,415 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>benchmark</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> (ns/op)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'go medium v2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>encode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'go medium v2'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>std</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easyjson</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jsoniter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'go medium v2'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9581-40A5-92E3-200FC408C479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'go medium v2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>decode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'go medium v2'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>std</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easyjson</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jsoniter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'go medium v2'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9581-40A5-92E3-200FC408C479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1697890480"/>
+        <c:axId val="1783225824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1697890480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783225824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1783225824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1697890480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3120,7 +3951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3197,7 +4028,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -3322,7 +4153,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781227696"/>
@@ -3380,7 +4211,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781232272"/>
@@ -3432,407 +4263,7 @@
       <a:pPr>
         <a:defRPr sz="1800" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ops/s (higher is better)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>java10000!$A$1:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>javaxjson</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>jackson</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>jsoniter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>java10000!$B$1:$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>113.544</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>199.95699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>274.03899999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E84-4749-9DE2-5D9CDEE359C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="781232272"/>
-        <c:axId val="781227696"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="781232272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="781227696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="781227696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="781232272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1800" baseline="0"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3844,6 +4275,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4699,7 +5170,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5195,7 +5666,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5691,7 +6162,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6187,7 +6658,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6683,7 +7154,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7179,7 +7650,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7675,7 +8146,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8167,6 +8638,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8686,6 +9662,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8928,23 +9941,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8965,20 +9976,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9267,9 +10278,9 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9313,9 +10324,54 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3">
+        <v>113.544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>199.95699999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>274.03899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9324,13 +10380,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9374,6 +10430,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9387,10 +10444,10 @@
       <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9418,6 +10475,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9431,9 +10489,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9462,6 +10520,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9475,12 +10534,12 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9488,7 +10547,7 @@
         <v>177084.68900000001</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -9496,7 +10555,7 @@
         <v>93788.846000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -9504,7 +10563,7 @@
         <v>104953.993</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9512,7 +10571,7 @@
         <v>330153.57299999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9556,6 +10615,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9570,9 +10630,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9651,6 +10711,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9660,13 +10721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9710,6 +10771,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9717,13 +10779,82 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>2213</v>
+      </c>
+      <c r="C2">
+        <v>35510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>883</v>
+      </c>
+      <c r="C3">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>837</v>
+      </c>
+      <c r="C4">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9750,49 +10881,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3">
-        <v>113.544</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>199.95699999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3">
-        <v>274.03899999999999</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
